--- a/Barikoi_Search_Documentation.xlsx
+++ b/Barikoi_Search_Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\sqa\Barikoi Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526BE3E-EADE-4AE4-A935-BE7C3EE3F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CF855-3FDC-4C37-A1F9-6D44620AD5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Product Name</t>
   </si>
@@ -187,9 +187,6 @@
     <t xml:space="preserve">As per the test data, the suggestion should be show in list </t>
   </si>
   <si>
-    <t>S_05</t>
-  </si>
-  <si>
     <t>1.1.4</t>
   </si>
   <si>
@@ -230,21 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wrok properly </t>
-  </si>
-  <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>Verify the close icon wrok proprely and go to the homepage.</t>
-  </si>
-  <si>
-    <t>After clicking the cross icon all the suggested place should be removed</t>
-  </si>
-  <si>
-    <t>Click the cross icon for a new search</t>
-  </si>
-  <si>
-    <t>https://screenrec.com/share/mPHt87fMlV</t>
   </si>
 </sst>
 </file>
@@ -255,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,24 +328,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +412,14 @@
         <bgColor rgb="FFFFFFFE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFC6D9F0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -552,7 +534,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -565,23 +588,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,15 +664,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -675,49 +708,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -939,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -952,11 +957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,19 +974,19 @@
       <c r="G1" s="2">
         <v>44880</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1004,11 +1009,11 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1031,9 +1036,9 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -1054,17 +1059,17 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>35</v>
@@ -1133,7 +1138,7 @@
       <c r="I7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="36">
         <v>44881</v>
       </c>
     </row>
@@ -1151,27 +1156,27 @@
         <v>40</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="52">
+      <c r="I8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="35">
         <v>44881</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>43</v>
@@ -1180,99 +1185,81 @@
         <v>44</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="I9" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="34">
         <v>44881</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="E10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="44" t="s">
+      <c r="G10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="48">
+      <c r="I10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="33">
         <v>44881</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="51">
-        <v>44881</v>
-      </c>
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
@@ -1281,9 +1268,8 @@
     <hyperlink ref="I8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="I9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="I10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I11" r:id="rId6" xr:uid="{4A584F1B-42ED-4126-B601-9A2D8EB727A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>